--- a/INTLINE/data/144/SCB/HIKPIND22015.xlsx
+++ b/INTLINE/data/144/SCB/HIKPIND22015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <x:si>
     <x:t>Harmonized Index of Consumer Prices, 2015=100, Index by month</x:t>
   </x:si>
@@ -970,22 +970,13 @@
     <x:t>Contact:</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> +46 010-479 50 00</x:t>
   </x:si>
   <x:si>
     <x:t>information@scb.se</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Emanuel Carlsson, Statistics Sweden</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> +46 010-479 48 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emanuel.carlsson@scb.se</x:t>
   </x:si>
   <x:si>
     <x:t>Units:</x:t>
@@ -1411,7 +1402,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:KY45"/>
+  <x:dimension ref="A1:KY41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3340,18 +3331,18 @@
         <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:311">
-      <x:c r="A19" s="0" t="s">
+    <x:row r="22" spans="1:311">
+      <x:c r="A22" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:311">
-      <x:c r="A20" s="0" t="s">
+    <x:row r="23" spans="1:311">
+      <x:c r="A23" s="0" t="s">
         <x:v>322</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:311">
-      <x:c r="A21" s="0" t="s">
+    <x:row r="25" spans="1:311">
+      <x:c r="A25" s="0" t="s">
         <x:v>323</x:v>
       </x:c>
     </x:row>
@@ -3360,54 +3351,39 @@
         <x:v>324</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:311">
-      <x:c r="A27" s="0" t="s">
-        <x:v>325</x:v>
-      </x:c>
-    </x:row>
     <x:row r="29" spans="1:311">
       <x:c r="A29" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:311">
       <x:c r="A30" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:311">
+      <x:c r="A35" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:311">
-      <x:c r="A33" s="0" t="s">
+    <x:row r="37" spans="1:311">
+      <x:c r="A37" s="0" t="s">
         <x:v>328</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:311">
-      <x:c r="A34" s="0" t="s">
+    <x:row r="38" spans="1:311">
+      <x:c r="A38" s="0" t="s">
         <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:311">
-      <x:c r="A39" s="0" t="s">
+    <x:row r="40" spans="1:311">
+      <x:c r="A40" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:311">
       <x:c r="A41" s="0" t="s">
         <x:v>331</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:311">
-      <x:c r="A42" s="0" t="s">
-        <x:v>332</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:311">
-      <x:c r="A44" s="0" t="s">
-        <x:v>333</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:311">
-      <x:c r="A45" s="0" t="s">
-        <x:v>334</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
